--- a/02_DOCUMENTATION/SCRUM MEDITREX.xlsx
+++ b/02_DOCUMENTATION/SCRUM MEDITREX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\GitHub\MediTrex\02_DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403F6849-329E-49C4-944A-40442E5280F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50172AFC-76F9-40D5-B572-86C74AF84368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="237" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23100" yWindow="2835" windowWidth="27600" windowHeight="16980" tabRatio="237" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
   <si>
     <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Patients can see doctor list with all the expertise information that doctors can edit in their own profiles</t>
+  </si>
+  <si>
+    <t>Treatment Management</t>
   </si>
 </sst>
 </file>
@@ -1670,58 +1673,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,10 +1682,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1748,6 +1695,62 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3403,26 +3406,26 @@
   </sheetPr>
   <dimension ref="B1:BG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="56" width="3" customWidth="1"/>
-    <col min="57" max="57" width="3.09765625" customWidth="1"/>
+    <col min="57" max="57" width="3.125" customWidth="1"/>
     <col min="58" max="58" width="3" customWidth="1"/>
     <col min="59" max="59" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:59" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3485,7 @@
       <c r="BD1" s="2"/>
       <c r="BE1" s="2"/>
     </row>
-    <row r="2" spans="2:59" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:59" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3498,7 +3501,7 @@
       <c r="L2" s="2"/>
       <c r="BG2" s="4"/>
     </row>
-    <row r="3" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3508,7 +3511,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="123" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -3560,7 +3563,7 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
     </row>
-    <row r="4" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3570,7 +3573,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="116"/>
+      <c r="K4" s="124"/>
       <c r="L4" s="11" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +3623,7 @@
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
     </row>
-    <row r="5" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3630,7 +3633,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="116"/>
+      <c r="K5" s="124"/>
       <c r="L5" s="15" t="s">
         <v>5</v>
       </c>
@@ -3680,76 +3683,76 @@
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
     </row>
-    <row r="6" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="117" t="s">
+    <row r="6" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="128" t="s">
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="112" t="s">
+      <c r="K6" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="106" t="s">
+      <c r="M6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107" t="s">
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="108" t="s">
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108" t="s">
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="109" t="s">
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109" t="s">
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="AM6" s="109"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="109"/>
-      <c r="AP6" s="109"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -3766,10 +3769,10 @@
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
     </row>
-    <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="118"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="122"/>
+    <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="126"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
@@ -3779,11 +3782,11 @@
       <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="114"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="144"/>
       <c r="M7" s="87" t="s">
         <v>24</v>
       </c>
@@ -3890,7 +3893,7 @@
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
     </row>
-    <row r="8" spans="2:59" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:59" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>1</v>
       </c>
@@ -3957,7 +3960,7 @@
       <c r="Y8" s="30">
         <v>7</v>
       </c>
-      <c r="Z8" s="144">
+      <c r="Z8" s="118">
         <v>8</v>
       </c>
       <c r="AA8" s="30">
@@ -4024,7 +4027,7 @@
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
     </row>
-    <row r="9" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="33">
         <v>1.1000000000000001</v>
       </c>
@@ -4078,18 +4081,18 @@
       <c r="S9" s="40"/>
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="138"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="112"/>
       <c r="X9" s="40"/>
-      <c r="Y9" s="135"/>
+      <c r="Y9" s="109"/>
       <c r="Z9" s="40"/>
       <c r="AA9" s="97"/>
       <c r="AB9" s="73"/>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="138"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="112"/>
       <c r="AH9" s="40"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="40"/>
@@ -4115,7 +4118,7 @@
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
     </row>
-    <row r="10" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="75" t="s">
         <v>80</v>
       </c>
@@ -4165,18 +4168,18 @@
         <v>5</v>
       </c>
       <c r="U10" s="40"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="138"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="112"/>
       <c r="X10" s="40"/>
-      <c r="Y10" s="135"/>
+      <c r="Y10" s="109"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="97"/>
       <c r="AB10" s="73"/>
       <c r="AC10" s="40"/>
       <c r="AD10" s="40"/>
       <c r="AE10" s="40"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="138"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="112"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="40"/>
@@ -4202,7 +4205,7 @@
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
     </row>
-    <row r="11" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33">
         <v>1.3</v>
       </c>
@@ -4252,20 +4255,20 @@
       <c r="U11" s="42">
         <v>2</v>
       </c>
-      <c r="V11" s="136">
+      <c r="V11" s="110">
         <v>2</v>
       </c>
-      <c r="W11" s="139"/>
+      <c r="W11" s="113"/>
       <c r="X11" s="40"/>
-      <c r="Y11" s="135"/>
+      <c r="Y11" s="109"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="97"/>
       <c r="AB11" s="73"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="138"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="112"/>
       <c r="AH11" s="40"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="40"/>
@@ -4291,7 +4294,7 @@
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
     </row>
-    <row r="12" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="75" t="s">
         <v>81</v>
       </c>
@@ -4337,20 +4340,20 @@
       <c r="U12" s="42">
         <v>5</v>
       </c>
-      <c r="V12" s="136">
+      <c r="V12" s="110">
         <v>5</v>
       </c>
-      <c r="W12" s="138"/>
+      <c r="W12" s="112"/>
       <c r="X12" s="40"/>
-      <c r="Y12" s="135"/>
+      <c r="Y12" s="109"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="97"/>
       <c r="AB12" s="73"/>
       <c r="AC12" s="40"/>
       <c r="AD12" s="40"/>
       <c r="AE12" s="40"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="138"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="112"/>
       <c r="AH12" s="40"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
@@ -4376,7 +4379,7 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
     </row>
-    <row r="13" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>29</v>
       </c>
@@ -4413,18 +4416,18 @@
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="140"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="114"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="137"/>
+      <c r="Y13" s="111"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="98"/>
       <c r="AB13" s="93"/>
       <c r="AC13" s="31"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="31"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="140"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="114"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="31"/>
@@ -4450,7 +4453,7 @@
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
     </row>
-    <row r="14" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33">
         <v>2.1</v>
       </c>
@@ -4494,14 +4497,14 @@
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="141">
+      <c r="V14" s="109"/>
+      <c r="W14" s="115">
         <v>5</v>
       </c>
       <c r="X14" s="92">
         <v>5</v>
       </c>
-      <c r="Y14" s="142">
+      <c r="Y14" s="116">
         <v>5</v>
       </c>
       <c r="Z14" s="40"/>
@@ -4510,8 +4513,8 @@
       <c r="AC14" s="40"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="138"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="112"/>
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
@@ -4537,7 +4540,7 @@
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33">
         <v>2.2000000000000002</v>
       </c>
@@ -4581,26 +4584,26 @@
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="138"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="112"/>
       <c r="X15" s="92">
         <v>5</v>
       </c>
-      <c r="Y15" s="142">
+      <c r="Y15" s="116">
         <v>5</v>
       </c>
-      <c r="Z15" s="146">
+      <c r="Z15" s="120">
         <v>5</v>
       </c>
-      <c r="AA15" s="143">
+      <c r="AA15" s="117">
         <v>5</v>
       </c>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="138"/>
+      <c r="AF15" s="109"/>
+      <c r="AG15" s="112"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40"/>
@@ -4626,7 +4629,7 @@
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
     </row>
-    <row r="16" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="33">
         <v>2.2999999999999998</v>
       </c>
@@ -4670,10 +4673,10 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="138"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="112"/>
       <c r="X16" s="40"/>
-      <c r="Y16" s="135"/>
+      <c r="Y16" s="109"/>
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
       <c r="AB16" s="92">
@@ -4688,10 +4691,10 @@
       <c r="AE16" s="92">
         <v>3</v>
       </c>
-      <c r="AF16" s="142">
+      <c r="AF16" s="116">
         <v>3</v>
       </c>
-      <c r="AG16" s="138"/>
+      <c r="AG16" s="112"/>
       <c r="AH16" s="40"/>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="40"/>
@@ -4717,7 +4720,7 @@
       <c r="BD16" s="2"/>
       <c r="BE16" s="2"/>
     </row>
-    <row r="17" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33">
         <v>2.4</v>
       </c>
@@ -4761,10 +4764,10 @@
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="138"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="112"/>
       <c r="X17" s="40"/>
-      <c r="Y17" s="135"/>
+      <c r="Y17" s="109"/>
       <c r="Z17" s="40"/>
       <c r="AA17" s="40"/>
       <c r="AB17" s="92">
@@ -4779,10 +4782,10 @@
       <c r="AE17" s="92">
         <v>5</v>
       </c>
-      <c r="AF17" s="142">
+      <c r="AF17" s="116">
         <v>5</v>
       </c>
-      <c r="AG17" s="138"/>
+      <c r="AG17" s="112"/>
       <c r="AH17" s="40"/>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40"/>
@@ -4808,7 +4811,7 @@
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
     </row>
-    <row r="18" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33">
         <v>3</v>
       </c>
@@ -4845,18 +4848,18 @@
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="140"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="114"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="145"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="119"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="93"/>
       <c r="AC18" s="31"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="140"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="114"/>
       <c r="AH18" s="31"/>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="31"/>
@@ -4882,7 +4885,7 @@
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
     </row>
-    <row r="19" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33">
         <v>3.1</v>
       </c>
@@ -4926,18 +4929,18 @@
       <c r="S19" s="40"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="138"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="112"/>
       <c r="X19" s="40"/>
-      <c r="Y19" s="135"/>
+      <c r="Y19" s="109"/>
       <c r="Z19" s="40"/>
       <c r="AA19" s="97"/>
       <c r="AB19" s="73"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="147">
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="121">
         <v>2</v>
       </c>
       <c r="AH19" s="99">
@@ -4969,7 +4972,7 @@
       <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
     </row>
-    <row r="20" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="75" t="s">
         <v>82</v>
       </c>
@@ -5013,18 +5016,18 @@
       <c r="S20" s="40"/>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="138"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="112"/>
       <c r="X20" s="40"/>
-      <c r="Y20" s="135"/>
+      <c r="Y20" s="109"/>
       <c r="Z20" s="40"/>
       <c r="AA20" s="97"/>
       <c r="AB20" s="73"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="40"/>
       <c r="AE20" s="40"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="138"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="112"/>
       <c r="AH20" s="40"/>
       <c r="AI20" s="99">
         <v>5</v>
@@ -5056,7 +5059,7 @@
       <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
     </row>
-    <row r="21" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75" t="s">
         <v>83</v>
       </c>
@@ -5100,18 +5103,18 @@
       <c r="S21" s="40"/>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="138"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="112"/>
       <c r="X21" s="40"/>
-      <c r="Y21" s="135"/>
+      <c r="Y21" s="109"/>
       <c r="Z21" s="40"/>
       <c r="AA21" s="97"/>
       <c r="AB21" s="73"/>
       <c r="AC21" s="40"/>
       <c r="AD21" s="40"/>
       <c r="AE21" s="40"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="138"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="112"/>
       <c r="AH21" s="40"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="40"/>
@@ -5145,7 +5148,7 @@
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
     </row>
-    <row r="22" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="75" t="s">
         <v>84</v>
       </c>
@@ -5189,18 +5192,18 @@
       <c r="S22" s="40"/>
       <c r="T22" s="40"/>
       <c r="U22" s="40"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="138"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="112"/>
       <c r="X22" s="40"/>
-      <c r="Y22" s="135"/>
+      <c r="Y22" s="109"/>
       <c r="Z22" s="40"/>
       <c r="AA22" s="97"/>
       <c r="AB22" s="73"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="138"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="112"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40"/>
@@ -5234,7 +5237,7 @@
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
     </row>
-    <row r="23" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="48" t="s">
         <v>21</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
@@ -5389,7 +5392,7 @@
       <c r="BF24" s="2"/>
       <c r="BG24" s="49"/>
     </row>
-    <row r="25" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L25" s="100" t="s">
         <v>35</v>
       </c>
@@ -5531,7 +5534,7 @@
       <c r="BF25" s="2"/>
       <c r="BG25" s="50"/>
     </row>
-    <row r="26" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L26" s="51" t="s">
         <v>21</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>160</v>
       </c>
       <c r="N26" s="53">
-        <f t="shared" ref="N26:BE26" si="7">M28</f>
+        <f t="shared" ref="N26:AP26" si="7">M28</f>
         <v>159</v>
       </c>
       <c r="O26" s="53">
@@ -5673,7 +5676,7 @@
       <c r="BF26" s="2"/>
       <c r="BG26" s="50"/>
     </row>
-    <row r="27" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="55"/>
       <c r="L27" s="51" t="s">
         <v>36</v>
@@ -5683,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="102">
-        <f t="shared" ref="N27:BE27" si="8">SUM(N9:N22)</f>
+        <f t="shared" ref="N27:AP27" si="8">SUM(N9:N22)</f>
         <v>1</v>
       </c>
       <c r="O27" s="102">
@@ -5816,12 +5819,12 @@
       <c r="BF27" s="2"/>
       <c r="BG27" s="50"/>
     </row>
-    <row r="28" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L28" s="51" t="s">
         <v>37</v>
       </c>
       <c r="M28" s="53">
-        <f t="shared" ref="M28:BE28" si="9">M26-M27</f>
+        <f t="shared" ref="M28:AP28" si="9">M26-M27</f>
         <v>159</v>
       </c>
       <c r="N28" s="53">
@@ -5958,7 +5961,7 @@
       <c r="BF28" s="2"/>
       <c r="BG28" s="50"/>
     </row>
-    <row r="29" spans="2:59" ht="381.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:59" ht="381.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
@@ -5976,80 +5979,72 @@
       <c r="BE29" s="2"/>
       <c r="BF29" s="2"/>
     </row>
-    <row r="30" spans="2:59" ht="223.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:59" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="134"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="134"/>
-      <c r="AJ32" s="134"/>
-      <c r="AK32" s="134"/>
-      <c r="AL32" s="134"/>
-      <c r="AM32" s="134"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="134"/>
-      <c r="AP32" s="134"/>
-      <c r="AQ32" s="134"/>
-      <c r="AR32" s="134"/>
-      <c r="AS32" s="134"/>
-      <c r="AT32" s="134"/>
-      <c r="AU32" s="134"/>
-      <c r="AV32" s="134"/>
-      <c r="AW32" s="134"/>
-      <c r="AX32" s="134"/>
-      <c r="AY32" s="134"/>
-      <c r="AZ32" s="134"/>
-      <c r="BA32" s="134"/>
-      <c r="BB32" s="134"/>
-      <c r="BC32" s="134"/>
-      <c r="BD32" s="134"/>
-      <c r="BE32" s="134"/>
+    <row r="30" spans="2:59" ht="223.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:59" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="139"/>
+      <c r="AJ32" s="139"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
+      <c r="AN32" s="139"/>
+      <c r="AO32" s="139"/>
+      <c r="AP32" s="139"/>
+      <c r="AQ32" s="139"/>
+      <c r="AR32" s="139"/>
+      <c r="AS32" s="139"/>
+      <c r="AT32" s="139"/>
+      <c r="AU32" s="139"/>
+      <c r="AV32" s="139"/>
+      <c r="AW32" s="139"/>
+      <c r="AX32" s="139"/>
+      <c r="AY32" s="139"/>
+      <c r="AZ32" s="139"/>
+      <c r="BA32" s="139"/>
+      <c r="BB32" s="139"/>
+      <c r="BC32" s="139"/>
+      <c r="BD32" s="139"/>
+      <c r="BE32" s="139"/>
     </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
     <mergeCell ref="B32:BE32"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -6059,6 +6054,14 @@
     <mergeCell ref="W6:AA6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6074,24 +6077,24 @@
   </sheetPr>
   <dimension ref="A1:H979"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="36.8984375" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="54.5" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="28" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6099,7 +6102,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
@@ -6107,7 +6110,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="70" t="s">
         <v>39</v>
@@ -6128,7 +6131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
       <c r="B4" s="77" t="s">
         <v>46</v>
@@ -6149,7 +6152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
       <c r="B5" s="76" t="s">
         <v>46</v>
@@ -6170,7 +6173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
       <c r="B6" s="80" t="s">
         <v>50</v>
@@ -6191,7 +6194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
       <c r="B7" s="80" t="s">
         <v>50</v>
@@ -6212,7 +6215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69"/>
       <c r="B8" s="76" t="s">
         <v>46</v>
@@ -6233,7 +6236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69"/>
       <c r="B9" s="80" t="s">
         <v>46</v>
@@ -6254,7 +6257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
       <c r="B10" s="76" t="s">
         <v>46</v>
@@ -6275,7 +6278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="76" t="s">
         <v>46</v>
@@ -6296,7 +6299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69"/>
       <c r="B12" s="76" t="s">
         <v>46</v>
@@ -6317,7 +6320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="76" t="s">
         <v>46</v>
@@ -6338,7 +6341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69"/>
       <c r="B14" s="76" t="s">
         <v>49</v>
@@ -6347,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E14" s="79" t="s">
         <v>54</v>
@@ -6359,7 +6362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69"/>
       <c r="B15" s="76" t="s">
         <v>49</v>
@@ -6367,8 +6370,8 @@
       <c r="C15" s="76">
         <v>3</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>53</v>
+      <c r="D15" s="76" t="s">
+        <v>97</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>55</v>
@@ -6380,978 +6383,978 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69"/>
     </row>
-    <row r="17" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="69"/>
     </row>
-    <row r="18" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
     </row>
-    <row r="19" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7370,25 +7373,25 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="72" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="9" max="9" width="39.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="39.125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7401,7 +7404,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
@@ -7414,7 +7417,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="56" t="s">
         <v>39</v>
       </c>
@@ -7446,17 +7449,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="130" t="s">
+    <row r="4" spans="2:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="131">
+      <c r="C4" s="107">
         <v>1</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="108" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="101" t="s">
@@ -7478,17 +7481,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="130" t="s">
+    <row r="5" spans="2:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="107">
         <v>2</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="108" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="61" t="s">
@@ -7510,17 +7513,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="130" t="s">
+    <row r="6" spans="2:13" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="107">
         <v>3</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="108" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="101" t="s">
@@ -7542,965 +7545,965 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="G4:G6">
     <cfRule type="colorScale" priority="12">
@@ -8555,8 +8558,6 @@
         <color rgb="FFE9E7E7"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>$K$6</formula>
     </cfRule>

--- a/02_DOCUMENTATION/SCRUM MEDITREX.xlsx
+++ b/02_DOCUMENTATION/SCRUM MEDITREX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\GitHub\MediTrex\02_DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50172AFC-76F9-40D5-B572-86C74AF84368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF52248-8101-405D-8686-47DBC57AB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23100" yWindow="2835" windowWidth="27600" windowHeight="16980" tabRatio="237" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="237" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
@@ -1695,6 +1695,30 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,30 +1751,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2018,7 +2018,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart &amp; Burndown'!$M$24:$BE$24</c15:sqref>
+                    <c15:sqref>'Gantt Chart &amp; Burndown'!$M$24:$AP$24</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
@@ -2124,7 +2124,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Gantt Chart &amp; Burndown'!$M$25:$BE$25</c15:sqref>
+                    <c15:sqref>'Gantt Chart &amp; Burndown'!$M$25:$AP$25</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
@@ -2136,91 +2136,91 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.36363636363637</c:v>
+                  <c:v>154.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.72727272727275</c:v>
+                  <c:v>149.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.09090909090912</c:v>
+                  <c:v>143.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145.4545454545455</c:v>
+                  <c:v>138.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.81818181818187</c:v>
+                  <c:v>133.33333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138.18181818181824</c:v>
+                  <c:v>127.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.54545454545462</c:v>
+                  <c:v>122.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.90909090909099</c:v>
+                  <c:v>117.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>127.27272727272735</c:v>
+                  <c:v>111.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.63636363636371</c:v>
+                  <c:v>106.66666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.00000000000007</c:v>
+                  <c:v>101.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>116.36363636363643</c:v>
+                  <c:v>95.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.72727272727279</c:v>
+                  <c:v>90.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109.09090909090915</c:v>
+                  <c:v>85.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.45454545454551</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.81818181818187</c:v>
+                  <c:v>74.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98.18181818181823</c:v>
+                  <c:v>69.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>94.545454545454589</c:v>
+                  <c:v>64.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90.909090909090949</c:v>
+                  <c:v>58.666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87.272727272727309</c:v>
+                  <c:v>53.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.636363636363669</c:v>
+                  <c:v>48.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>80.000000000000028</c:v>
+                  <c:v>42.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76.363636363636388</c:v>
+                  <c:v>37.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.727272727272748</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.090909090909108</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65.454545454545467</c:v>
+                  <c:v>21.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61.818181818181834</c:v>
+                  <c:v>16.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.181818181818201</c:v>
+                  <c:v>10.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54.545454545454568</c:v>
+                  <c:v>5.3333333333333384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,91 +2407,91 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>155</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>150</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,94 +2647,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>155</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,8 +3406,8 @@
   </sheetPr>
   <dimension ref="B1:BG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3511,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="133" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -3573,7 +3573,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="124"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="11" t="s">
         <v>4</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="124"/>
+      <c r="K5" s="134"/>
       <c r="L5" s="15" t="s">
         <v>5</v>
       </c>
@@ -3684,75 +3684,75 @@
       <c r="BE5" s="2"/>
     </row>
     <row r="6" spans="2:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="136" t="s">
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="140" t="s">
+      <c r="J6" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="L6" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="147" t="s">
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147" t="s">
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="147"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="122" t="s">
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122" t="s">
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132"/>
+      <c r="AP6" s="132"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -3770,9 +3770,9 @@
       <c r="BE6" s="2"/>
     </row>
     <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="130"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
@@ -3782,11 +3782,11 @@
       <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="144"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="87" t="s">
         <v>24</v>
       </c>
@@ -5274,12 +5274,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="86">
-        <f>SUM(K9:K22)</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I24" s="50">
         <f>E24/H24</f>
-        <v>3.6363636363636362</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="L24" s="100" t="s">
         <v>34</v>
@@ -5402,119 +5401,119 @@
       </c>
       <c r="N25" s="54">
         <f>M25-I24</f>
-        <v>156.36363636363637</v>
+        <v>154.66666666666666</v>
       </c>
       <c r="O25" s="54">
         <f>N25-I24</f>
-        <v>152.72727272727275</v>
+        <v>149.33333333333331</v>
       </c>
       <c r="P25" s="54">
         <f>O25-I24</f>
-        <v>149.09090909090912</v>
+        <v>143.99999999999997</v>
       </c>
       <c r="Q25" s="54">
         <f>P25-I24</f>
-        <v>145.4545454545455</v>
+        <v>138.66666666666663</v>
       </c>
       <c r="R25" s="54">
         <f>Q25-I24</f>
-        <v>141.81818181818187</v>
+        <v>133.33333333333329</v>
       </c>
       <c r="S25" s="54">
         <f>R25-I24</f>
-        <v>138.18181818181824</v>
+        <v>127.99999999999996</v>
       </c>
       <c r="T25" s="54">
         <f>S25-I24</f>
-        <v>134.54545454545462</v>
+        <v>122.66666666666663</v>
       </c>
       <c r="U25" s="54">
         <f>T25-I24</f>
-        <v>130.90909090909099</v>
+        <v>117.3333333333333</v>
       </c>
       <c r="V25" s="54">
         <f>U25-I24</f>
-        <v>127.27272727272735</v>
+        <v>111.99999999999997</v>
       </c>
       <c r="W25" s="54">
         <f>V25-I24</f>
-        <v>123.63636363636371</v>
+        <v>106.66666666666664</v>
       </c>
       <c r="X25" s="54">
         <f>W25-I24</f>
-        <v>120.00000000000007</v>
+        <v>101.33333333333331</v>
       </c>
       <c r="Y25" s="54">
         <f>X25-I24</f>
-        <v>116.36363636363643</v>
+        <v>95.999999999999986</v>
       </c>
       <c r="Z25" s="54">
         <f>Y25-I24</f>
-        <v>112.72727272727279</v>
+        <v>90.666666666666657</v>
       </c>
       <c r="AA25" s="54">
         <f>Z25-I24</f>
-        <v>109.09090909090915</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="AB25" s="54">
         <f>AA25-I24</f>
-        <v>105.45454545454551</v>
+        <v>80</v>
       </c>
       <c r="AC25" s="54">
         <f>AB25-I24</f>
-        <v>101.81818181818187</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="AD25" s="54">
         <f>AC25-I24</f>
-        <v>98.18181818181823</v>
+        <v>69.333333333333343</v>
       </c>
       <c r="AE25" s="54">
         <f>AD25-I24</f>
-        <v>94.545454545454589</v>
+        <v>64.000000000000014</v>
       </c>
       <c r="AF25" s="54">
         <f>AE25-I24</f>
-        <v>90.909090909090949</v>
+        <v>58.666666666666679</v>
       </c>
       <c r="AG25" s="54">
         <f>AF25-I24</f>
-        <v>87.272727272727309</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="AH25" s="54">
         <f>AG25-I24</f>
-        <v>83.636363636363669</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="AI25" s="54">
         <f>AH25-I24</f>
-        <v>80.000000000000028</v>
+        <v>42.666666666666671</v>
       </c>
       <c r="AJ25" s="54">
         <f>AI25-I24</f>
-        <v>76.363636363636388</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="AK25" s="54">
         <f>AJ25-I24</f>
-        <v>72.727272727272748</v>
+        <v>32</v>
       </c>
       <c r="AL25" s="54">
         <f>AK25-I24</f>
-        <v>69.090909090909108</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="AM25" s="54">
         <f>AL25-I24</f>
-        <v>65.454545454545467</v>
+        <v>21.333333333333336</v>
       </c>
       <c r="AN25" s="54">
         <f>AM25-I24</f>
-        <v>61.818181818181834</v>
+        <v>16.000000000000004</v>
       </c>
       <c r="AO25" s="54">
         <f>AN25-I24</f>
-        <v>58.181818181818201</v>
+        <v>10.666666666666671</v>
       </c>
       <c r="AP25" s="54">
         <f>AO25-I24</f>
-        <v>54.545454545454568</v>
+        <v>5.3333333333333384</v>
       </c>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
@@ -5544,119 +5543,119 @@
       </c>
       <c r="N26" s="53">
         <f t="shared" ref="N26:AP26" si="7">M28</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O26" s="53">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="53">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="53">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R26" s="53">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S26" s="53">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T26" s="53">
         <f t="shared" si="7"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U26" s="53">
         <f t="shared" si="7"/>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V26" s="53">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W26" s="53">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X26" s="53">
         <f t="shared" si="7"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y26" s="53">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z26" s="53">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA26" s="53">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB26" s="53">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC26" s="53">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" s="53">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" s="53">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF26" s="53">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG26" s="53">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH26" s="53">
         <f t="shared" si="7"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" s="53">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ26" s="53">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK26" s="53">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL26" s="53">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM26" s="53">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN26" s="53">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO26" s="53">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP26" s="53">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
@@ -5682,43 +5681,35 @@
         <v>36</v>
       </c>
       <c r="M27" s="102">
-        <f>SUM(M9:M22)</f>
         <v>1</v>
       </c>
       <c r="N27" s="102">
-        <f t="shared" ref="N27:AP27" si="8">SUM(N9:N22)</f>
         <v>1</v>
       </c>
       <c r="O27" s="102">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P27" s="102">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q27" s="102">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R27" s="102">
-        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S27" s="102">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T27" s="102">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="U27" s="102">
-        <f t="shared" si="8"/>
+        <f>SUM(U9:U22)</f>
         <v>7</v>
       </c>
       <c r="V27" s="102">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N27:AP27" si="8">SUM(V9:V22)</f>
         <v>7</v>
       </c>
       <c r="W27" s="102">
@@ -5823,125 +5814,124 @@
       <c r="L28" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="53">
-        <f t="shared" ref="M28:AP28" si="9">M26-M27</f>
+      <c r="M28" s="102">
+        <v>160</v>
+      </c>
+      <c r="N28" s="53">
+        <f t="shared" ref="M28:AP28" si="9">N26-N27</f>
         <v>159</v>
       </c>
-      <c r="N28" s="53">
+      <c r="O28" s="53">
         <f t="shared" si="9"/>
         <v>158</v>
       </c>
-      <c r="O28" s="53">
+      <c r="P28" s="53">
         <f t="shared" si="9"/>
         <v>157</v>
       </c>
-      <c r="P28" s="53">
+      <c r="Q28" s="53">
         <f t="shared" si="9"/>
         <v>156</v>
       </c>
-      <c r="Q28" s="53">
-        <f t="shared" si="9"/>
-        <v>155</v>
-      </c>
       <c r="R28" s="53">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S28" s="53">
         <f t="shared" si="9"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T28" s="53">
         <f t="shared" si="9"/>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U28" s="53">
         <f t="shared" si="9"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V28" s="53">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W28" s="53">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X28" s="53">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y28" s="53">
         <f t="shared" si="9"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z28" s="53">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA28" s="53">
         <f t="shared" si="9"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB28" s="53">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC28" s="53">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" s="53">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE28" s="53">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF28" s="53">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG28" s="53">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH28" s="53">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" s="53">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ28" s="53">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AK28" s="53">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL28" s="53">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM28" s="53">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN28" s="53">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" s="53">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP28" s="53">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
@@ -5982,62 +5972,62 @@
     <row r="30" spans="2:59" ht="223.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:59" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="139"/>
-      <c r="AH32" s="139"/>
-      <c r="AI32" s="139"/>
-      <c r="AJ32" s="139"/>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="139"/>
-      <c r="AM32" s="139"/>
-      <c r="AN32" s="139"/>
-      <c r="AO32" s="139"/>
-      <c r="AP32" s="139"/>
-      <c r="AQ32" s="139"/>
-      <c r="AR32" s="139"/>
-      <c r="AS32" s="139"/>
-      <c r="AT32" s="139"/>
-      <c r="AU32" s="139"/>
-      <c r="AV32" s="139"/>
-      <c r="AW32" s="139"/>
-      <c r="AX32" s="139"/>
-      <c r="AY32" s="139"/>
-      <c r="AZ32" s="139"/>
-      <c r="BA32" s="139"/>
-      <c r="BB32" s="139"/>
-      <c r="BC32" s="139"/>
-      <c r="BD32" s="139"/>
-      <c r="BE32" s="139"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="123"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="123"/>
+      <c r="AJ32" s="123"/>
+      <c r="AK32" s="123"/>
+      <c r="AL32" s="123"/>
+      <c r="AM32" s="123"/>
+      <c r="AN32" s="123"/>
+      <c r="AO32" s="123"/>
+      <c r="AP32" s="123"/>
+      <c r="AQ32" s="123"/>
+      <c r="AR32" s="123"/>
+      <c r="AS32" s="123"/>
+      <c r="AT32" s="123"/>
+      <c r="AU32" s="123"/>
+      <c r="AV32" s="123"/>
+      <c r="AW32" s="123"/>
+      <c r="AX32" s="123"/>
+      <c r="AY32" s="123"/>
+      <c r="AZ32" s="123"/>
+      <c r="BA32" s="123"/>
+      <c r="BB32" s="123"/>
+      <c r="BC32" s="123"/>
+      <c r="BD32" s="123"/>
+      <c r="BE32" s="123"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6045,6 +6035,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="B32:BE32"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -6055,16 +6052,12 @@
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="U27 V27:AP27" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6077,7 +6070,7 @@
   </sheetPr>
   <dimension ref="A1:H979"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
